--- a/figures_tables/ELISA/ELISA_P.xlsx
+++ b/figures_tables/ELISA/ELISA_P.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,12 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.000213603460297</v>
-      </c>
-      <c r="C2">
-        <v>56</v>
+        <v>7.962467</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -402,7 +404,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>1.67984855248271e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -412,10 +414,12 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.192236186412504</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
+        <v>5.309817</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -423,7 +427,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>1.71846883278981e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -433,10 +437,12 @@
         </is>
       </c>
       <c r="B4">
-        <v>5.010085045738801</v>
-      </c>
-      <c r="C4">
-        <v>56</v>
+        <v>3.475529</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -444,20 +450,22 @@
         </is>
       </c>
       <c r="E4">
-        <v>2.664535259100376e-15</v>
+        <v>2.7e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B5">
-        <v>5.820341421527823</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
+        <v>0.436489</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -465,20 +473,22 @@
         </is>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.014093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B6">
-        <v>1.939975678669989</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
+        <v>2.361874</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -486,20 +496,22 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.0079857306791139</v>
+        <v>0.01219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B7">
-        <v>1.82328032189524</v>
-      </c>
-      <c r="C7">
-        <v>56</v>
+        <v>0.296626</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -507,20 +519,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.02828859249083981</v>
+        <v>3.1e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B8">
-        <v>8.856260789662022</v>
-      </c>
-      <c r="C8">
-        <v>56</v>
+        <v>0.444813</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -528,20 +542,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.022413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B9">
-        <v>2.951876752857747</v>
-      </c>
-      <c r="C9">
-        <v>56</v>
+        <v>3.544066</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -549,20 +565,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>2.689891528406818e-07</v>
+        <v>2.4e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B10">
-        <v>2.77431251088437</v>
-      </c>
-      <c r="C10">
-        <v>56</v>
+        <v>0.445097</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -570,20 +588,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>2.69670493657781e-06</v>
+        <v>0.019797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B11">
-        <v>1.767686717652525</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
+        <v>3.262638</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,20 +611,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.037493629600301</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B12">
-        <v>2.925329456933593</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
+        <v>3.485976</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -612,20 +634,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>5.771712685564978e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B13">
-        <v>3.146274986515829</v>
-      </c>
-      <c r="C13">
-        <v>64</v>
+        <v>6.834108</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -633,20 +657,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>5.309786055285315e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B14">
-        <v>5.112084680713622</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
+        <v>2.094657</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -654,20 +680,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.015213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>4 / 3</t>
         </is>
       </c>
       <c r="B15">
-        <v>1.747524426213601</v>
-      </c>
-      <c r="C15">
-        <v>64</v>
+        <v>1.960458</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -675,7 +703,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.02430145750983803</v>
+        <v>0.045699</v>
       </c>
     </row>
     <row r="16">
@@ -685,10 +713,12 @@
         </is>
       </c>
       <c r="B16">
-        <v>6.168159864919736</v>
-      </c>
-      <c r="C16">
-        <v>64</v>
+        <v>10.110442</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -706,10 +736,12 @@
         </is>
       </c>
       <c r="B17">
-        <v>2.108535108857572</v>
-      </c>
-      <c r="C17">
-        <v>64</v>
+        <v>3.098855</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -717,7 +749,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.0005458359289236547</v>
+        <v>2.3e-05</v>
       </c>
     </row>
     <row r="18">
@@ -727,10 +759,12 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.960464324115016</v>
-      </c>
-      <c r="C18">
-        <v>64</v>
+        <v>2.900319</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -738,7 +772,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.003505192804947432</v>
+        <v>0.000135</v>
       </c>
     </row>
     <row r="19">
@@ -748,10 +782,12 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.096915505364709</v>
-      </c>
-      <c r="C19">
-        <v>64</v>
+        <v>17.270513</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -769,10 +805,12 @@
         </is>
       </c>
       <c r="B20">
-        <v>3.109706321728402</v>
-      </c>
-      <c r="C20">
-        <v>64</v>
+        <v>5.29342</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -780,7 +818,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>5.424467541814693e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -790,10 +828,12 @@
         </is>
       </c>
       <c r="B21">
-        <v>2.891328807669985</v>
-      </c>
-      <c r="C21">
-        <v>64</v>
+        <v>4.954284</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -801,7 +841,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>9.986856908117403e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +851,12 @@
         </is>
       </c>
       <c r="B22">
-        <v>1.77949233503206</v>
-      </c>
-      <c r="C22">
-        <v>64</v>
+        <v>2.527106</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -822,7 +864,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.01772985794972959</v>
+        <v>0.00274</v>
       </c>
     </row>
     <row r="23">
@@ -832,10 +874,12 @@
         </is>
       </c>
       <c r="B23">
-        <v>2.843316588980501</v>
-      </c>
-      <c r="C23">
-        <v>73</v>
+        <v>2.050038</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -843,7 +887,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>4.806826714442991e-09</v>
+        <v>0.016799</v>
       </c>
     </row>
     <row r="24">
@@ -853,10 +897,12 @@
         </is>
       </c>
       <c r="B24">
-        <v>3.095359147273352</v>
-      </c>
-      <c r="C24">
-        <v>73</v>
+        <v>3.199654</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -864,7 +910,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>3.250066882287683e-10</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +920,12 @@
         </is>
       </c>
       <c r="B25">
-        <v>5.229318548218605</v>
-      </c>
-      <c r="C25">
-        <v>73</v>
+        <v>7.771523</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -895,10 +943,12 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.839161551156577</v>
-      </c>
-      <c r="C26">
-        <v>73</v>
+        <v>3.790916</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -906,7 +956,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.003795887766101735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -916,10 +966,12 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.689406075164176</v>
-      </c>
-      <c r="C27">
-        <v>73</v>
+        <v>2.428863</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -927,7 +979,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.02561493513287461</v>
+        <v>0.003224</v>
       </c>
     </row>
     <row r="28">
@@ -937,10 +989,12 @@
         </is>
       </c>
       <c r="B28">
-        <v>6.58436164067466</v>
-      </c>
-      <c r="C28">
-        <v>73</v>
+        <v>12.381829</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -958,10 +1012,12 @@
         </is>
       </c>
       <c r="B29">
-        <v>2.315732854439382</v>
-      </c>
-      <c r="C29">
-        <v>73</v>
+        <v>6.039804</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,7 +1025,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>8.364305867036848e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -979,10 +1035,12 @@
         </is>
       </c>
       <c r="B30">
-        <v>2.127172107467629</v>
-      </c>
-      <c r="C30">
-        <v>73</v>
+        <v>3.86974</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -990,7 +1048,7 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.0001432226376365531</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="31">
@@ -1000,10 +1058,12 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.37547749335363</v>
-      </c>
-      <c r="C31">
-        <v>73</v>
+        <v>18.422995</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1021,10 +1081,12 @@
         </is>
       </c>
       <c r="B32">
-        <v>3.297373753485293</v>
-      </c>
-      <c r="C32">
-        <v>73</v>
+        <v>8.986659</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1032,7 +1094,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>6.520228801321082e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1042,10 +1104,12 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.028881964024216</v>
-      </c>
-      <c r="C33">
-        <v>73</v>
+        <v>5.757808</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1053,7 +1117,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>1.792528570021545e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1063,10 +1127,12 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.79286792474087</v>
-      </c>
-      <c r="C34">
-        <v>73</v>
+        <v>2.370577</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1074,20 +1140,22 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.00651518651682248</v>
+        <v>0.008598</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B35">
-        <v>2.720287361021133</v>
-      </c>
-      <c r="C35">
-        <v>87</v>
+        <v>3.49168</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1095,20 +1163,22 @@
         </is>
       </c>
       <c r="E35">
-        <v>1.846292008167438e-10</v>
+        <v>7e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B36">
-        <v>3.017789572710674</v>
-      </c>
-      <c r="C36">
-        <v>87</v>
+        <v>5.972497</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1116,20 +1186,22 @@
         </is>
       </c>
       <c r="E36">
-        <v>2.02482475231136e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B37">
-        <v>5.41704876395266</v>
-      </c>
-      <c r="C37">
-        <v>87</v>
+        <v>3.152813</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1137,20 +1209,22 @@
         </is>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>6.499999999999999e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B38">
-        <v>1.991351664376819</v>
-      </c>
-      <c r="C38">
-        <v>87</v>
+        <v>8.435276999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1158,20 +1232,22 @@
         </is>
       </c>
       <c r="E38">
-        <v>5.668678461900889e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B39">
-        <v>1.795038598097778</v>
-      </c>
-      <c r="C39">
-        <v>87</v>
+        <v>4.452886</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1179,20 +1255,22 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.001674925354351875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B40">
-        <v>7.288299419702558</v>
-      </c>
-      <c r="C40">
-        <v>87</v>
+        <v>2.415822</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1200,20 +1278,22 @@
         </is>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.008193000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B41">
-        <v>2.679238790774919</v>
-      </c>
-      <c r="C41">
-        <v>87</v>
+        <v>10.847413</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1221,20 +1301,22 @@
         </is>
       </c>
       <c r="E41">
-        <v>2.977309510043824e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B42">
-        <v>2.415111870492673</v>
-      </c>
-      <c r="C42">
-        <v>87</v>
+        <v>5.726225</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1242,20 +1324,22 @@
         </is>
       </c>
       <c r="E42">
-        <v>8.472893553435057e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B43">
-        <v>9.82584667298454</v>
-      </c>
-      <c r="C43">
-        <v>87</v>
+        <v>3.106646</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1263,20 +1347,22 @@
         </is>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.000189</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B44">
-        <v>3.612062024688503</v>
-      </c>
-      <c r="C44">
-        <v>87</v>
+        <v>5.634672</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1290,14 +1376,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B45">
-        <v>3.255974757762403</v>
-      </c>
-      <c r="C45">
-        <v>87</v>
+        <v>3.287528</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1305,20 +1393,22 @@
         </is>
       </c>
       <c r="E45">
-        <v>8.493206138382448e-14</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>4 / 3</t>
         </is>
       </c>
       <c r="B46">
-        <v>1.813874510115155</v>
-      </c>
-      <c r="C46">
-        <v>87</v>
+        <v>3.100349</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1326,20 +1416,22 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.000894611356876851</v>
+        <v>0.000372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B47">
-        <v>2.489968846177713</v>
-      </c>
-      <c r="C47">
-        <v>115</v>
+        <v>7.881682</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1347,20 +1439,22 @@
         </is>
       </c>
       <c r="E47">
-        <v>3.079869692612647e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B48">
-        <v>2.868433380938995</v>
-      </c>
-      <c r="C48">
-        <v>115</v>
+        <v>4.598537</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1368,20 +1462,22 @@
         </is>
       </c>
       <c r="E48">
-        <v>5.551115123125783e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B49">
-        <v>5.812969432377571</v>
-      </c>
-      <c r="C49">
-        <v>115</v>
+        <v>4.336714</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1389,20 +1485,22 @@
         </is>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B50">
-        <v>2.334555085418403</v>
-      </c>
-      <c r="C50">
-        <v>115</v>
+        <v>8.157323</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1410,20 +1508,22 @@
         </is>
       </c>
       <c r="E50">
-        <v>1.394746540483993e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B51">
-        <v>2.026531092200116</v>
-      </c>
-      <c r="C51">
-        <v>115</v>
+        <v>4.759359</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1431,20 +1531,22 @@
         </is>
       </c>
       <c r="E51">
-        <v>8.161932101291569e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B52">
-        <v>8.929996036168165</v>
-      </c>
-      <c r="C52">
-        <v>115</v>
+        <v>4.48838</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1458,14 +1560,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B53">
-        <v>3.586388660997255</v>
-      </c>
-      <c r="C53">
-        <v>115</v>
+        <v>3.954968</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1473,20 +1577,22 @@
         </is>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1.5e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B54">
-        <v>3.113196246950972</v>
-      </c>
-      <c r="C54">
-        <v>115</v>
+        <v>2.574947</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1494,20 +1600,22 @@
         </is>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.007571</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>4 / 3</t>
         </is>
       </c>
       <c r="B55">
-        <v>1.536219335066363</v>
-      </c>
-      <c r="C55">
-        <v>115</v>
+        <v>2.309508</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1515,20 +1623,22 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.008645984119933003</v>
+        <v>0.033917</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B56">
-        <v>10.79252734190845</v>
-      </c>
-      <c r="C56">
-        <v>115</v>
+        <v>8.23344</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1542,14 +1652,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B57">
-        <v>4.334402560287361</v>
-      </c>
-      <c r="C57">
-        <v>115</v>
+        <v>5.360517</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1563,14 +1675,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B58">
-        <v>3.762516296744344</v>
-      </c>
-      <c r="C58">
-        <v>115</v>
+        <v>4.807927</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1584,14 +1698,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B59">
-        <v>1.856628951426324</v>
-      </c>
-      <c r="C59">
-        <v>115</v>
+        <v>9.791079999999999</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1599,20 +1715,22 @@
         </is>
       </c>
       <c r="E59">
-        <v>1.597803103381423e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B60">
-        <v>2.279150704360973</v>
-      </c>
-      <c r="C60">
-        <v>143</v>
+        <v>6.374645</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1620,20 +1738,22 @@
         </is>
       </c>
       <c r="E60">
-        <v>2.426816525513686e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B61">
-        <v>2.726469113449333</v>
-      </c>
-      <c r="C61">
-        <v>143</v>
+        <v>5.717513</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1641,20 +1761,22 @@
         </is>
       </c>
       <c r="E61">
-        <v>5.750955267558311e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>8 / 4</t>
         </is>
       </c>
       <c r="B62">
-        <v>6.237827107374985</v>
-      </c>
-      <c r="C62">
-        <v>143</v>
+        <v>2.475641</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1662,20 +1784,22 @@
         </is>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.016452</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B63">
-        <v>2.736908575391439</v>
-      </c>
-      <c r="C63">
-        <v>143</v>
+        <v>5.112541</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1683,20 +1807,22 @@
         </is>
       </c>
       <c r="E63">
-        <v>1.111333247649782e-13</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B64">
-        <v>2.287877415007036</v>
-      </c>
-      <c r="C64">
-        <v>143</v>
+        <v>3.326991</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1704,20 +1830,22 @@
         </is>
       </c>
       <c r="E64">
-        <v>6.205374325496393e-09</v>
+        <v>0.000589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>4 / 3</t>
         </is>
       </c>
       <c r="B65">
-        <v>10.94148643103274</v>
-      </c>
-      <c r="C65">
-        <v>143</v>
+        <v>2.485413</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1725,20 +1853,22 @@
         </is>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.02802</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B66">
-        <v>4.800685803750088</v>
-      </c>
-      <c r="C66">
-        <v>143</v>
+        <v>12.221181</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1752,14 +1882,16 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B67">
-        <v>4.013060840139266</v>
-      </c>
-      <c r="C67">
-        <v>143</v>
+        <v>7.952945</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1773,14 +1905,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B68">
-        <v>1.754054134988226</v>
-      </c>
-      <c r="C68">
-        <v>143</v>
+        <v>5.941211</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1788,20 +1922,22 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.0002201960449295104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>6 / 4</t>
         </is>
       </c>
       <c r="B69">
-        <v>11.85431141990961</v>
-      </c>
-      <c r="C69">
-        <v>143</v>
+        <v>2.390432</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1809,20 +1945,22 @@
         </is>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.041521</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B70">
-        <v>5.201196830568215</v>
-      </c>
-      <c r="C70">
-        <v>143</v>
+        <v>9.724766000000001</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1836,14 +1974,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B71">
-        <v>4.347861988031982</v>
-      </c>
-      <c r="C71">
-        <v>143</v>
+        <v>6.328401</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1857,14 +1997,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B72">
-        <v>1.900391148368677</v>
-      </c>
-      <c r="C72">
-        <v>143</v>
+        <v>4.727603</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1872,7 +2014,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>9.54570012634548e-06</v>
+        <v>4e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1882,10 +2024,12 @@
         </is>
       </c>
       <c r="B73">
-        <v>2.086181897883223</v>
-      </c>
-      <c r="C73">
-        <v>171</v>
+        <v>2.545841</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1893,7 +2037,7 @@
         </is>
       </c>
       <c r="E73">
-        <v>4.486045006901751e-05</v>
+        <v>0.033586</v>
       </c>
     </row>
     <row r="74">
@@ -1903,10 +2047,12 @@
         </is>
       </c>
       <c r="B74">
-        <v>2.591530929736902</v>
-      </c>
-      <c r="C74">
-        <v>171</v>
+        <v>2.952371</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1914,7 +2060,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>9.350875995739472e-08</v>
+        <v>0.011063</v>
       </c>
     </row>
     <row r="75">
@@ -1924,10 +2070,12 @@
         </is>
       </c>
       <c r="B75">
-        <v>6.693736733720847</v>
-      </c>
-      <c r="C75">
-        <v>171</v>
+        <v>6.44014</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1945,10 +2093,12 @@
         </is>
       </c>
       <c r="B76">
-        <v>3.208606469317346</v>
-      </c>
-      <c r="C76">
-        <v>171</v>
+        <v>2.529671</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1956,20 +2106,22 @@
         </is>
       </c>
       <c r="E76">
-        <v>6.153966225497243e-13</v>
+        <v>0.038843</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B77">
-        <v>2.582927588057153</v>
-      </c>
-      <c r="C77">
-        <v>171</v>
+        <v>15.758965</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1977,20 +2129,22 @@
         </is>
       </c>
       <c r="E77">
-        <v>8.483571967143888e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B78">
-        <v>13.40606701678258</v>
-      </c>
-      <c r="C78">
-        <v>171</v>
+        <v>6.190082</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2004,14 +2158,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B79">
-        <v>6.426125655862156</v>
-      </c>
-      <c r="C79">
-        <v>171</v>
+        <v>5.337732</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2019,20 +2175,22 @@
         </is>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B80">
-        <v>5.17302991176092</v>
-      </c>
-      <c r="C80">
-        <v>171</v>
+        <v>13.152128</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2046,14 +2204,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B81">
-        <v>2.002777753305895</v>
-      </c>
-      <c r="C81">
-        <v>171</v>
+        <v>5.166123</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2061,20 +2221,22 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.0001344392909801151</v>
+        <v>6e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B82">
-        <v>13.02055531465072</v>
-      </c>
-      <c r="C82">
-        <v>171</v>
+        <v>4.454769</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2082,20 +2244,22 @@
         </is>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>7.2e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B83">
-        <v>6.241332708265866</v>
-      </c>
-      <c r="C83">
-        <v>171</v>
+        <v>4.434474</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2103,20 +2267,22 @@
         </is>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B84">
-        <v>5.024271624638722</v>
-      </c>
-      <c r="C84">
-        <v>171</v>
+        <v>12.022409</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2130,14 +2296,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B85">
-        <v>1.945184854530869</v>
-      </c>
-      <c r="C85">
-        <v>171</v>
+        <v>4.642138</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2145,20 +2313,22 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.000271059702604548</v>
+        <v>0.000151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B86">
-        <v>1.909551177431201</v>
-      </c>
-      <c r="C86">
-        <v>199</v>
+        <v>23.760083</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2166,20 +2336,22 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.01392046481327414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B87">
-        <v>2.463271095444896</v>
-      </c>
-      <c r="C87">
-        <v>199</v>
+        <v>9.174333000000001</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2187,20 +2359,22 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.0002199762684547135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B88">
-        <v>7.182967833043894</v>
-      </c>
-      <c r="C88">
-        <v>199</v>
+        <v>5.358038</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2208,20 +2382,22 @@
         </is>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3.8e-05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B89">
-        <v>3.761600064946512</v>
-      </c>
-      <c r="C89">
-        <v>199</v>
+        <v>22.154043</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2229,20 +2405,22 @@
         </is>
       </c>
       <c r="E89">
-        <v>4.705026368512222e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B90">
-        <v>2.916028140924767</v>
-      </c>
-      <c r="C90">
-        <v>199</v>
+        <v>8.554202</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2250,20 +2428,22 @@
         </is>
       </c>
       <c r="E90">
-        <v>2.814020085950553e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B91">
-        <v>16.42579680478594</v>
-      </c>
-      <c r="C91">
-        <v>199</v>
+        <v>4.995867</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2271,24 +2451,26 @@
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.000109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B92">
-        <v>8.60191494154272</v>
-      </c>
-      <c r="C92">
-        <v>199</v>
+        <v>16.07567</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E92">
@@ -2298,18 +2480,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B93">
-        <v>6.668286261776333</v>
-      </c>
-      <c r="C93">
-        <v>199</v>
+        <v>9.865385</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E93">
@@ -2319,39 +2503,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B94">
-        <v>2.286770202314167</v>
-      </c>
-      <c r="C94">
-        <v>199</v>
+        <v>9.49855</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E94">
-        <v>0.0004047572619998441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B95">
-        <v>14.30153593039082</v>
-      </c>
-      <c r="C95">
-        <v>199</v>
+        <v>6.516209</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E95">
@@ -2361,64 +2549,70 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B96">
-        <v>7.489475065878977</v>
-      </c>
-      <c r="C96">
-        <v>199</v>
+        <v>0.405346</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005505</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B97">
-        <v>5.805912291520555</v>
-      </c>
-      <c r="C97">
-        <v>199</v>
+        <v>8.374667000000001</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0 (pre-dose 2)</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E97">
-        <v>5.551115123125783e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B98">
-        <v>1.991034383392237</v>
-      </c>
-      <c r="C98">
-        <v>199</v>
+        <v>6.52419</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E98">
-        <v>0.006830538573533662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2428,18 +2622,20 @@
         </is>
       </c>
       <c r="B99">
-        <v>2.345607369348643</v>
-      </c>
-      <c r="C99">
-        <v>226</v>
+        <v>6.48919</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E99">
-        <v>0.01194688467469951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2449,18 +2645,20 @@
         </is>
       </c>
       <c r="B100">
-        <v>7.688561596459821</v>
-      </c>
-      <c r="C100">
-        <v>226</v>
+        <v>18.039765</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E100">
-        <v>4.218847493575595e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2470,18 +2668,20 @@
         </is>
       </c>
       <c r="B101">
-        <v>4.384928257130485</v>
-      </c>
-      <c r="C101">
-        <v>226</v>
+        <v>2.765058</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E101">
-        <v>3.234270840035691e-08</v>
+        <v>0.000131</v>
       </c>
     </row>
     <row r="102">
@@ -2491,18 +2691,20 @@
         </is>
       </c>
       <c r="B102">
-        <v>3.277855320941831</v>
-      </c>
-      <c r="C102">
-        <v>226</v>
+        <v>2.779972</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E102">
-        <v>6.445471790483825e-05</v>
+        <v>0.000172</v>
       </c>
     </row>
     <row r="103">
@@ -2512,14 +2714,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>19.98023588104184</v>
-      </c>
-      <c r="C103">
-        <v>226</v>
+        <v>26.719592</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E103">
@@ -2533,14 +2737,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>11.39509644290988</v>
-      </c>
-      <c r="C104">
-        <v>226</v>
+        <v>4.095465</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E104">
@@ -2554,56 +2760,62 @@
         </is>
       </c>
       <c r="B105">
-        <v>8.518150199447142</v>
-      </c>
-      <c r="C105">
-        <v>226</v>
+        <v>4.117554</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E105">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B106">
-        <v>2.598696209996118</v>
-      </c>
-      <c r="C106">
-        <v>226</v>
+        <v>39.66469</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E106">
-        <v>0.001419776864828415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B107">
-        <v>15.65598460774021</v>
-      </c>
-      <c r="C107">
-        <v>226</v>
+        <v>6.079634</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E107">
@@ -2613,18 +2825,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B108">
-        <v>8.9288963141415</v>
-      </c>
-      <c r="C108">
-        <v>226</v>
+        <v>6.112425</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E108">
@@ -2634,56 +2848,62 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>8 / 4</t>
         </is>
       </c>
       <c r="B109">
-        <v>6.674597297197165</v>
-      </c>
-      <c r="C109">
-        <v>226</v>
+        <v>2.198736</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>7 (1)</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E109">
-        <v>2.754907413304863e-12</v>
+        <v>0.019314</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B110">
-        <v>2.036269646971284</v>
-      </c>
-      <c r="C110">
-        <v>226</v>
+        <v>4.055417</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E110">
-        <v>0.04329820192977851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B111">
-        <v>6.057223736091898</v>
-      </c>
-      <c r="C111">
-        <v>56</v>
+        <v>5.969045</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2697,14 +2917,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B112">
-        <v>5.983258492921317</v>
-      </c>
-      <c r="C112">
-        <v>56</v>
+        <v>19.727948</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2718,14 +2940,16 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B113">
-        <v>13.69246032153317</v>
-      </c>
-      <c r="C113">
-        <v>56</v>
+        <v>4.864592</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2739,14 +2963,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>4 / 3</t>
         </is>
       </c>
       <c r="B114">
-        <v>2.260517510678498</v>
-      </c>
-      <c r="C114">
-        <v>56</v>
+        <v>3.305043</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2754,20 +2980,22 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.0004052822317037741</v>
+        <v>9e-06</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B115">
-        <v>2.288462104342051</v>
-      </c>
-      <c r="C115">
-        <v>56</v>
+        <v>31.17676</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2775,20 +3003,22 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.0003045098266342139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B116">
-        <v>16.05782854197545</v>
-      </c>
-      <c r="C116">
-        <v>56</v>
+        <v>7.687683</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2802,14 +3032,16 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B117">
-        <v>2.651021200735094</v>
-      </c>
-      <c r="C117">
-        <v>56</v>
+        <v>5.223074</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2817,20 +3049,22 @@
         </is>
       </c>
       <c r="E117">
-        <v>5.548441231129075e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B118">
-        <v>2.683793214178056</v>
-      </c>
-      <c r="C118">
-        <v>56</v>
+        <v>40.977581</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2838,20 +3072,22 @@
         </is>
       </c>
       <c r="E118">
-        <v>8.599153070054655e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B119">
-        <v>20.92743889901776</v>
-      </c>
-      <c r="C119">
-        <v>56</v>
+        <v>10.104407</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2865,14 +3101,16 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B120">
-        <v>3.454955572190912</v>
-      </c>
-      <c r="C120">
-        <v>56</v>
+        <v>6.865015</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2880,20 +3118,22 @@
         </is>
       </c>
       <c r="E120">
-        <v>1.219731426971293e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>8 / 4</t>
         </is>
       </c>
       <c r="B121">
-        <v>3.497665849432483</v>
-      </c>
-      <c r="C121">
-        <v>56</v>
+        <v>2.077133</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>16 (2)</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2901,7 +3141,7 @@
         </is>
       </c>
       <c r="E121">
-        <v>2.281776545487446e-09</v>
+        <v>0.044311</v>
       </c>
     </row>
     <row r="122">
@@ -2911,10 +3151,12 @@
         </is>
       </c>
       <c r="B122">
-        <v>5.849685317127012</v>
-      </c>
-      <c r="C122">
-        <v>64</v>
+        <v>3.685062</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2922,7 +3164,7 @@
         </is>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="123">
@@ -2932,10 +3174,12 @@
         </is>
       </c>
       <c r="B123">
-        <v>5.934079690750194</v>
-      </c>
-      <c r="C123">
-        <v>64</v>
+        <v>6.535692</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2953,10 +3197,12 @@
         </is>
       </c>
       <c r="B124">
-        <v>13.49419862764655</v>
-      </c>
-      <c r="C124">
-        <v>64</v>
+        <v>14.266877</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2974,10 +3220,12 @@
         </is>
       </c>
       <c r="B125">
-        <v>2.306824708696301</v>
-      </c>
-      <c r="C125">
-        <v>64</v>
+        <v>3.871543</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2985,7 +3233,7 @@
         </is>
       </c>
       <c r="E125">
-        <v>7.046881151195894e-05</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="126">
@@ -2995,10 +3243,12 @@
         </is>
       </c>
       <c r="B126">
-        <v>2.274017089571744</v>
-      </c>
-      <c r="C126">
-        <v>64</v>
+        <v>2.182918</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3006,7 +3256,7 @@
         </is>
       </c>
       <c r="E126">
-        <v>9.925039597602492e-05</v>
+        <v>0.025594</v>
       </c>
     </row>
     <row r="127">
@@ -3016,10 +3266,12 @@
         </is>
       </c>
       <c r="B127">
-        <v>16.30103977952972</v>
-      </c>
-      <c r="C127">
-        <v>64</v>
+        <v>19.699621</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3037,10 +3289,12 @@
         </is>
       </c>
       <c r="B128">
-        <v>2.786652425866855</v>
-      </c>
-      <c r="C128">
-        <v>64</v>
+        <v>5.345805</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3048,7 +3302,7 @@
         </is>
       </c>
       <c r="E128">
-        <v>3.382219210257276e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3058,10 +3312,12 @@
         </is>
       </c>
       <c r="B129">
-        <v>2.747020705660412</v>
-      </c>
-      <c r="C129">
-        <v>64</v>
+        <v>3.01416</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3069,7 +3325,7 @@
         </is>
       </c>
       <c r="E129">
-        <v>1.360937654903971e-06</v>
+        <v>0.000261</v>
       </c>
     </row>
     <row r="130">
@@ -3079,10 +3335,12 @@
         </is>
       </c>
       <c r="B130">
-        <v>20.89262334213973</v>
-      </c>
-      <c r="C130">
-        <v>64</v>
+        <v>22.954627</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3100,10 +3358,12 @@
         </is>
       </c>
       <c r="B131">
-        <v>3.571580727764829</v>
-      </c>
-      <c r="C131">
-        <v>64</v>
+        <v>6.229102</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3111,7 +3371,7 @@
         </is>
       </c>
       <c r="E131">
-        <v>2.098210494239083e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3121,10 +3381,12 @@
         </is>
       </c>
       <c r="B132">
-        <v>3.520785771499886</v>
-      </c>
-      <c r="C132">
-        <v>64</v>
+        <v>3.512195</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>30 (4)</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3132,7 +3394,7 @@
         </is>
       </c>
       <c r="E132">
-        <v>3.013733707035726e-11</v>
+        <v>1.3e-05</v>
       </c>
     </row>
     <row r="133">
@@ -3142,10 +3404,12 @@
         </is>
       </c>
       <c r="B133">
-        <v>5.624692093834303</v>
-      </c>
-      <c r="C133">
-        <v>73</v>
+        <v>3.224135</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3153,7 +3417,7 @@
         </is>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>9.6e-05</v>
       </c>
     </row>
     <row r="134">
@@ -3163,10 +3427,12 @@
         </is>
       </c>
       <c r="B134">
-        <v>5.879236542121046</v>
-      </c>
-      <c r="C134">
-        <v>73</v>
+        <v>3.424729</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3174,7 +3440,7 @@
         </is>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>4.6e-05</v>
       </c>
     </row>
     <row r="135">
@@ -3184,10 +3450,12 @@
         </is>
       </c>
       <c r="B135">
-        <v>13.27458359454164</v>
-      </c>
-      <c r="C135">
-        <v>73</v>
+        <v>11.918893</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3205,10 +3473,12 @@
         </is>
       </c>
       <c r="B136">
-        <v>2.360055159124716</v>
-      </c>
-      <c r="C136">
-        <v>73</v>
+        <v>3.696773</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3216,7 +3486,7 @@
         </is>
       </c>
       <c r="E136">
-        <v>3.946768598050987e-06</v>
+        <v>1.2e-05</v>
       </c>
     </row>
     <row r="137">
@@ -3226,10 +3496,12 @@
         </is>
       </c>
       <c r="B137">
-        <v>2.257875406005112</v>
-      </c>
-      <c r="C137">
-        <v>73</v>
+        <v>3.480244</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3237,7 +3509,7 @@
         </is>
       </c>
       <c r="E137">
-        <v>1.969354200781481e-05</v>
+        <v>4.5e-05</v>
       </c>
     </row>
     <row r="138">
@@ -3247,10 +3519,12 @@
         </is>
       </c>
       <c r="B138">
-        <v>16.57905832553829</v>
-      </c>
-      <c r="C138">
-        <v>73</v>
+        <v>15.834416</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3268,10 +3542,12 @@
         </is>
       </c>
       <c r="B139">
-        <v>2.947549492302342</v>
-      </c>
-      <c r="C139">
-        <v>73</v>
+        <v>4.911214</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3279,7 +3555,7 @@
         </is>
       </c>
       <c r="E139">
-        <v>9.07802832905702e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3289,10 +3565,12 @@
         </is>
       </c>
       <c r="B140">
-        <v>2.819933882020179</v>
-      </c>
-      <c r="C140">
-        <v>73</v>
+        <v>4.623554</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3300,7 +3578,7 @@
         </is>
       </c>
       <c r="E140">
-        <v>1.425457563097865e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3310,10 +3588,12 @@
         </is>
       </c>
       <c r="B141">
-        <v>20.85352506867896</v>
-      </c>
-      <c r="C141">
-        <v>73</v>
+        <v>15.624556</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3331,10 +3611,12 @@
         </is>
       </c>
       <c r="B142">
-        <v>3.707496289714819</v>
-      </c>
-      <c r="C142">
-        <v>73</v>
+        <v>4.846124</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3342,7 +3624,7 @@
         </is>
       </c>
       <c r="E142">
-        <v>4.796163466380676e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3352,10 +3634,12 @@
         </is>
       </c>
       <c r="B143">
-        <v>3.546978407702516</v>
-      </c>
-      <c r="C143">
-        <v>73</v>
+        <v>4.562276</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>58 (8)</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3363,7 +3647,7 @@
         </is>
       </c>
       <c r="E143">
-        <v>3.751443600208404e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3373,10 +3657,12 @@
         </is>
       </c>
       <c r="B144">
-        <v>5.291780334408401</v>
-      </c>
-      <c r="C144">
-        <v>87</v>
+        <v>2.793931</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3384,7 +3670,7 @@
         </is>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.001969</v>
       </c>
     </row>
     <row r="145">
@@ -3394,10 +3680,12 @@
         </is>
       </c>
       <c r="B145">
-        <v>5.794930721812751</v>
-      </c>
-      <c r="C145">
-        <v>87</v>
+        <v>3.248646</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3405,7 +3693,7 @@
         </is>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.000321</v>
       </c>
     </row>
     <row r="146">
@@ -3415,10 +3703,12 @@
         </is>
       </c>
       <c r="B146">
-        <v>12.94004300402957</v>
-      </c>
-      <c r="C146">
-        <v>87</v>
+        <v>7.408062</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3436,10 +3726,12 @@
         </is>
       </c>
       <c r="B147">
-        <v>2.445309930930119</v>
-      </c>
-      <c r="C147">
-        <v>87</v>
+        <v>2.651484</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3447,7 +3739,7 @@
         </is>
       </c>
       <c r="E147">
-        <v>2.900965545560297e-08</v>
+        <v>0.005171</v>
       </c>
     </row>
     <row r="148">
@@ -3457,10 +3749,12 @@
         </is>
       </c>
       <c r="B148">
-        <v>2.232993563723176</v>
-      </c>
-      <c r="C148">
-        <v>87</v>
+        <v>2.280354</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3468,7 +3762,7 @@
         </is>
       </c>
       <c r="E148">
-        <v>1.436732773751892e-06</v>
+        <v>0.036633</v>
       </c>
     </row>
     <row r="149">
@@ -3478,10 +3772,12 @@
         </is>
       </c>
       <c r="B149">
-        <v>17.02098615083295</v>
-      </c>
-      <c r="C149">
-        <v>87</v>
+        <v>14.229484</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3499,10 +3795,12 @@
         </is>
       </c>
       <c r="B150">
-        <v>3.216495219984566</v>
-      </c>
-      <c r="C150">
-        <v>87</v>
+        <v>5.092999</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3510,7 +3808,7 @@
         </is>
       </c>
       <c r="E150">
-        <v>5.3179682879545e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3520,10 +3818,12 @@
         </is>
       </c>
       <c r="B151">
-        <v>2.937219954461941</v>
-      </c>
-      <c r="C151">
-        <v>87</v>
+        <v>4.380128</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3531,7 +3831,7 @@
         </is>
       </c>
       <c r="E151">
-        <v>2.052435998933788e-11</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="152">
@@ -3541,10 +3841,12 @@
         </is>
       </c>
       <c r="B152">
-        <v>20.79285091480005</v>
-      </c>
-      <c r="C152">
-        <v>87</v>
+        <v>16.974874</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3562,10 +3864,12 @@
         </is>
       </c>
       <c r="B153">
-        <v>3.929273250365295</v>
-      </c>
-      <c r="C153">
-        <v>87</v>
+        <v>6.075625</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3583,10 +3887,12 @@
         </is>
       </c>
       <c r="B154">
-        <v>3.58811035247298</v>
-      </c>
-      <c r="C154">
-        <v>87</v>
+        <v>5.225215</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3594,7 +3900,7 @@
         </is>
       </c>
       <c r="E154">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3604,10 +3910,12 @@
         </is>
       </c>
       <c r="B155">
-        <v>1.606861036576547</v>
-      </c>
-      <c r="C155">
-        <v>87</v>
+        <v>2.291406</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>86 (12)</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3615,7 +3923,7 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.01814827056570834</v>
+        <v>0.038275</v>
       </c>
     </row>
     <row r="156">
@@ -3625,10 +3933,12 @@
         </is>
       </c>
       <c r="B156">
-        <v>4.683903267133995</v>
-      </c>
-      <c r="C156">
-        <v>115</v>
+        <v>2.703044</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3636,7 +3946,7 @@
         </is>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="157">
@@ -3646,10 +3956,12 @@
         </is>
       </c>
       <c r="B157">
-        <v>5.629928477698959</v>
-      </c>
-      <c r="C157">
-        <v>115</v>
+        <v>3.928511</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3657,7 +3969,7 @@
         </is>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>5.4e-05</v>
       </c>
     </row>
     <row r="158">
@@ -3667,10 +3979,12 @@
         </is>
       </c>
       <c r="B158">
-        <v>12.29604221225625</v>
-      </c>
-      <c r="C158">
-        <v>115</v>
+        <v>8.479939999999999</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3688,10 +4002,12 @@
         </is>
       </c>
       <c r="B159">
-        <v>2.625169972773584</v>
-      </c>
-      <c r="C159">
-        <v>115</v>
+        <v>3.137181</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3699,20 +4015,22 @@
         </is>
       </c>
       <c r="E159">
-        <v>2.201572257831685e-13</v>
+        <v>0.001316</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B160">
-        <v>2.184049453019311</v>
-      </c>
-      <c r="C160">
-        <v>115</v>
+        <v>18.169612</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3720,20 +4038,22 @@
         </is>
       </c>
       <c r="E160">
-        <v>8.003468443540385e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B161">
-        <v>17.94049560497661</v>
-      </c>
-      <c r="C161">
-        <v>115</v>
+        <v>6.721907</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3747,14 +4067,16 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B162">
-        <v>3.83024468734473</v>
-      </c>
-      <c r="C162">
-        <v>115</v>
+        <v>4.625063</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3762,20 +4084,22 @@
         </is>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>3e-06</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B163">
-        <v>3.186629399652547</v>
-      </c>
-      <c r="C163">
-        <v>115</v>
+        <v>15.260581</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3789,14 +4113,16 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B164">
-        <v>1.459046357786099</v>
-      </c>
-      <c r="C164">
-        <v>115</v>
+        <v>5.645702</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3804,20 +4130,22 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.03266532739638961</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B165">
-        <v>20.67203169494315</v>
-      </c>
-      <c r="C165">
-        <v>115</v>
+        <v>3.884571</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>114 (16)</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3825,20 +4153,22 @@
         </is>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>7.7e-05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B166">
-        <v>4.413419858602678</v>
-      </c>
-      <c r="C166">
-        <v>115</v>
+        <v>4.330382</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3846,20 +4176,22 @@
         </is>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>3.7e-05</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B167">
-        <v>3.671810712485663</v>
-      </c>
-      <c r="C167">
-        <v>115</v>
+        <v>5.676381</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3867,20 +4199,22 @@
         </is>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B168">
-        <v>1.681193943392452</v>
-      </c>
-      <c r="C168">
-        <v>115</v>
+        <v>9.459009</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3888,20 +4222,22 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.0005465835204190306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B169">
-        <v>4.145854217193467</v>
-      </c>
-      <c r="C169">
-        <v>143</v>
+        <v>20.155094</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3915,14 +4251,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B170">
-        <v>5.469624433075302</v>
-      </c>
-      <c r="C170">
-        <v>143</v>
+        <v>4.654345</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3930,20 +4268,22 @@
         </is>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1.7e-05</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B171">
-        <v>11.68409208829569</v>
-      </c>
-      <c r="C171">
-        <v>143</v>
+        <v>3.550694</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3951,20 +4291,22 @@
         </is>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.001104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>4 / 2</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B172">
-        <v>2.818259272079573</v>
-      </c>
-      <c r="C172">
-        <v>143</v>
+        <v>18.681162</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3972,20 +4314,22 @@
         </is>
       </c>
       <c r="E172">
-        <v>1.27675647831893e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4 / 3</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B173">
-        <v>2.136178129094376</v>
-      </c>
-      <c r="C173">
-        <v>143</v>
+        <v>4.313975</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3993,20 +4337,22 @@
         </is>
       </c>
       <c r="E173">
-        <v>6.07790739959313e-08</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B174">
-        <v>18.90967889286691</v>
-      </c>
-      <c r="C174">
-        <v>143</v>
+        <v>3.291034</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>142 (20)</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4014,20 +4360,22 @@
         </is>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.002828</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6 / 2</t>
+          <t>2 / 1</t>
         </is>
       </c>
       <c r="B175">
-        <v>4.561105601457402</v>
-      </c>
-      <c r="C175">
-        <v>143</v>
+        <v>4.264969</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4035,20 +4383,22 @@
         </is>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.000381</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6 / 3</t>
+          <t>3 / 1</t>
         </is>
       </c>
       <c r="B176">
-        <v>3.457217058362985</v>
-      </c>
-      <c r="C176">
-        <v>143</v>
+        <v>8.581232999999999</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4062,14 +4412,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6 / 4</t>
+          <t>4 / 1</t>
         </is>
       </c>
       <c r="B177">
-        <v>1.618412346459449</v>
-      </c>
-      <c r="C177">
-        <v>143</v>
+        <v>15.704426</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4077,20 +4429,22 @@
         </is>
       </c>
       <c r="E177">
-        <v>0.002673511989162991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>8 / 1</t>
+          <t>4 / 2</t>
         </is>
       </c>
       <c r="B178">
-        <v>20.55191450887406</v>
-      </c>
-      <c r="C178">
-        <v>143</v>
+        <v>3.68219</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4098,20 +4452,22 @@
         </is>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.002301</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>8 / 2</t>
+          <t>6 / 1</t>
         </is>
       </c>
       <c r="B179">
-        <v>4.95722073961073</v>
-      </c>
-      <c r="C179">
-        <v>143</v>
+        <v>26.282374</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4125,14 +4481,16 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>8 / 3</t>
+          <t>6 / 2</t>
         </is>
       </c>
       <c r="B180">
-        <v>3.757463562689024</v>
-      </c>
-      <c r="C180">
-        <v>143</v>
+        <v>6.162384</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4140,20 +4498,22 @@
         </is>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>8 / 4</t>
+          <t>6 / 3</t>
         </is>
       </c>
       <c r="B181">
-        <v>1.758965468053914</v>
-      </c>
-      <c r="C181">
-        <v>143</v>
+        <v>3.062774</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4161,20 +4521,22 @@
         </is>
       </c>
       <c r="E181">
-        <v>0.0001664067280241488</v>
+        <v>0.016477</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2 / 1</t>
+          <t>8 / 1</t>
         </is>
       </c>
       <c r="B182">
-        <v>3.669611904845758</v>
-      </c>
-      <c r="C182">
-        <v>171</v>
+        <v>28.583976</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4182,20 +4544,22 @@
         </is>
       </c>
       <c r="E182">
-        <v>5.773159728050814e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3 / 1</t>
+          <t>8 / 2</t>
         </is>
       </c>
       <c r="B183">
-        <v>5.313884813528187</v>
-      </c>
-      <c r="C183">
-        <v>171</v>
+        <v>6.702036</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4209,14 +4573,16 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4 / 1</t>
+          <t>8 / 3</t>
         </is>
       </c>
       <c r="B184">
-        <v>11.1025975327002</v>
-      </c>
-      <c r="C184">
-        <v>171</v>
+        <v>3.330987</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>169 (24)</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4224,742 +4590,7 @@
         </is>
       </c>
       <c r="E184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>4 / 2</t>
-        </is>
-      </c>
-      <c r="B185">
-        <v>3.025550881290504</v>
-      </c>
-      <c r="C185">
-        <v>171</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E185">
-        <v>9.910627873921385e-12</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>4 / 3</t>
-        </is>
-      </c>
-      <c r="B186">
-        <v>2.089356077955436</v>
-      </c>
-      <c r="C186">
-        <v>171</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E186">
-        <v>3.741471107510108e-05</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>6 / 1</t>
-        </is>
-      </c>
-      <c r="B187">
-        <v>19.9312194994293</v>
-      </c>
-      <c r="C187">
-        <v>171</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>6 / 2</t>
-        </is>
-      </c>
-      <c r="B188">
-        <v>5.43142436209942</v>
-      </c>
-      <c r="C188">
-        <v>171</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>6 / 3</t>
-        </is>
-      </c>
-      <c r="B189">
-        <v>3.750781245518917</v>
-      </c>
-      <c r="C189">
-        <v>171</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E189">
-        <v>5.551115123125783e-16</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>6 / 4</t>
-        </is>
-      </c>
-      <c r="B190">
-        <v>1.795185265495429</v>
-      </c>
-      <c r="C190">
-        <v>171</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E190">
-        <v>0.0025248797589279</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>8 / 1</t>
-        </is>
-      </c>
-      <c r="B191">
-        <v>20.43249527734576</v>
-      </c>
-      <c r="C191">
-        <v>171</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>8 / 2</t>
-        </is>
-      </c>
-      <c r="B192">
-        <v>5.56802621289855</v>
-      </c>
-      <c r="C192">
-        <v>171</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>8 / 3</t>
-        </is>
-      </c>
-      <c r="B193">
-        <v>3.845114449099148</v>
-      </c>
-      <c r="C193">
-        <v>171</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E193">
-        <v>3.33066907387547e-16</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>8 / 4</t>
-        </is>
-      </c>
-      <c r="B194">
-        <v>1.840334679985151</v>
-      </c>
-      <c r="C194">
-        <v>171</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E194">
-        <v>0.001365278662535441</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2 / 1</t>
-        </is>
-      </c>
-      <c r="B195">
-        <v>3.248076470306171</v>
-      </c>
-      <c r="C195">
-        <v>199</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E195">
-        <v>2.243807872837067e-08</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>3 / 1</t>
-        </is>
-      </c>
-      <c r="B196">
-        <v>5.16257965367633</v>
-      </c>
-      <c r="C196">
-        <v>199</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E196">
-        <v>3.552713678800501e-15</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>4 / 1</t>
-        </is>
-      </c>
-      <c r="B197">
-        <v>10.55004283102163</v>
-      </c>
-      <c r="C197">
-        <v>199</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>4 / 2</t>
-        </is>
-      </c>
-      <c r="B198">
-        <v>3.248089423838952</v>
-      </c>
-      <c r="C198">
-        <v>199</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E198">
-        <v>8.352053026960959e-08</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>4 / 3</t>
-        </is>
-      </c>
-      <c r="B199">
-        <v>2.043560301003555</v>
-      </c>
-      <c r="C199">
-        <v>199</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E199">
-        <v>0.004230093140973334</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>6 / 1</t>
-        </is>
-      </c>
-      <c r="B200">
-        <v>21.00794587708643</v>
-      </c>
-      <c r="C200">
-        <v>199</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>6 / 2</t>
-        </is>
-      </c>
-      <c r="B201">
-        <v>6.467811355163747</v>
-      </c>
-      <c r="C201">
-        <v>199</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>6 / 3</t>
-        </is>
-      </c>
-      <c r="B202">
-        <v>4.069272977149407</v>
-      </c>
-      <c r="C202">
-        <v>199</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E202">
-        <v>1.016009498755466e-11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>6 / 4</t>
-        </is>
-      </c>
-      <c r="B203">
-        <v>1.991266406550892</v>
-      </c>
-      <c r="C203">
-        <v>199</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E203">
-        <v>0.006718284719105183</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>8 / 1</t>
-        </is>
-      </c>
-      <c r="B204">
-        <v>20.31376994481424</v>
-      </c>
-      <c r="C204">
-        <v>199</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>8 / 2</t>
-        </is>
-      </c>
-      <c r="B205">
-        <v>6.25409226984715</v>
-      </c>
-      <c r="C205">
-        <v>199</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>8 / 3</t>
-        </is>
-      </c>
-      <c r="B206">
-        <v>3.93480998019054</v>
-      </c>
-      <c r="C206">
-        <v>199</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E206">
-        <v>3.036704221415221e-11</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>8 / 4</t>
-        </is>
-      </c>
-      <c r="B207">
-        <v>1.92546800711397</v>
-      </c>
-      <c r="C207">
-        <v>199</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E207">
-        <v>0.01220137248382069</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2 / 1</t>
-        </is>
-      </c>
-      <c r="B208">
-        <v>2.88751995149397</v>
-      </c>
-      <c r="C208">
-        <v>226</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E208">
-        <v>0.0002187865166018987</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>3 / 1</t>
-        </is>
-      </c>
-      <c r="B209">
-        <v>5.020759789208755</v>
-      </c>
-      <c r="C209">
-        <v>226</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E209">
-        <v>3.884446098112448e-10</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>4 / 1</t>
-        </is>
-      </c>
-      <c r="B210">
-        <v>10.04328177940737</v>
-      </c>
-      <c r="C210">
-        <v>226</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>4 / 2</t>
-        </is>
-      </c>
-      <c r="B211">
-        <v>3.47816879125323</v>
-      </c>
-      <c r="C211">
-        <v>226</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E211">
-        <v>5.552543899889351e-06</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>6 / 1</t>
-        </is>
-      </c>
-      <c r="B212">
-        <v>22.10127082627228</v>
-      </c>
-      <c r="C212">
-        <v>226</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>6 / 2</t>
-        </is>
-      </c>
-      <c r="B213">
-        <v>7.654066880070332</v>
-      </c>
-      <c r="C213">
-        <v>226</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E213">
-        <v>3.108624468950438e-15</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>6 / 3</t>
-        </is>
-      </c>
-      <c r="B214">
-        <v>4.401977340914636</v>
-      </c>
-      <c r="C214">
-        <v>226</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E214">
-        <v>3.504675016863246e-08</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>6 / 4</t>
-        </is>
-      </c>
-      <c r="B215">
-        <v>2.200602483501806</v>
-      </c>
-      <c r="C215">
-        <v>226</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E215">
-        <v>0.01637750332425258</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>8 / 1</t>
-        </is>
-      </c>
-      <c r="B216">
-        <v>20.19993819781556</v>
-      </c>
-      <c r="C216">
-        <v>226</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>8 / 2</t>
-        </is>
-      </c>
-      <c r="B217">
-        <v>6.995601255452572</v>
-      </c>
-      <c r="C217">
-        <v>226</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E217">
-        <v>2.55351295663786e-14</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>8 / 3</t>
-        </is>
-      </c>
-      <c r="B218">
-        <v>4.023283137590409</v>
-      </c>
-      <c r="C218">
-        <v>226</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E218">
-        <v>1.193177272540424e-07</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>8 / 4</t>
-        </is>
-      </c>
-      <c r="B219">
-        <v>2.011288604809764</v>
-      </c>
-      <c r="C219">
-        <v>226</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E219">
-        <v>0.04997156500225663</v>
+        <v>0.007088</v>
       </c>
     </row>
   </sheetData>
